--- a/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P2B_R-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.06316355836601152</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4272432959589873</v>
+        <v>0.4272432959589875</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.924063165557353</v>
+        <v>1.881801180805108</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.95815264275565</v>
+        <v>-5.629208347515405</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.026556159920193</v>
+        <v>-2.653913513116333</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.267239991603792</v>
+        <v>6.464129265180837</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.07970492749591658</v>
+        <v>0.07577903487978147</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1197069727254784</v>
+        <v>-0.1123612955323432</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.07252228202839149</v>
+        <v>-0.06480620705289505</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2220682160670367</v>
+        <v>0.2301322022826274</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.030579043835644</v>
+        <v>9.079826913062686</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.066354150610217</v>
+        <v>3.1686984393547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.593414079725172</v>
+        <v>7.792185749215887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.43586538460454</v>
+        <v>15.82524957765365</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4832626826845162</v>
+        <v>0.4884214964068595</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06742600476315615</v>
+        <v>0.06939850659664587</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2189947924231999</v>
+        <v>0.2229314990016315</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6751590277329268</v>
+        <v>0.687257703595849</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04100317281468791</v>
+        <v>0.3275532903626471</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.210077598022613</v>
+        <v>2.101990869080498</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.303813463970496</v>
+        <v>3.951391715284826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.805643388238146</v>
+        <v>-2.016854605738499</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.00185105589601633</v>
+        <v>0.01569341210284158</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03891324562181612</v>
+        <v>0.03805712100778345</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09976147634692403</v>
+        <v>0.09037182622666955</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.0702577785235894</v>
+        <v>-0.07779233121365732</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>7.021864391504377</v>
+        <v>7.173528939863101</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.502627179235734</v>
+        <v>9.50643661895322</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11.6714295345282</v>
+        <v>11.61815313179728</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.658352422765348</v>
+        <v>4.532441972128667</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3480200264987642</v>
+        <v>0.3624889520106832</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1782694146336151</v>
+        <v>0.1812690712222717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2950396331809074</v>
+        <v>0.2948354164200024</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2082365794223455</v>
+        <v>0.2006063615262727</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>3.252596103209565</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.6375049527167775</v>
+        <v>-0.6375049527167748</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1240634797210334</v>
@@ -849,7 +849,7 @@
         <v>0.06778086040751533</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.03016956776092902</v>
+        <v>-0.03016956776092888</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.390665927311335</v>
+        <v>-3.728450263609127</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.283502729095814</v>
+        <v>-2.550279326780946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-4.510832586422675</v>
+        <v>-4.744612630970951</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.154982731001071</v>
+        <v>-6.929880815190051</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1238293484957923</v>
+        <v>-0.1279482926961433</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.04161377468824336</v>
+        <v>-0.04646103322204886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.08439624250883303</v>
+        <v>-0.08783328566639265</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2470983982761907</v>
+        <v>-0.2772041970566165</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.06329415967939</v>
+        <v>9.987213369492499</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.15319762916664</v>
+        <v>13.11077837563374</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>10.51007574127491</v>
+        <v>11.27729138666677</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.569529874017517</v>
+        <v>4.36497314853993</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4707657700865424</v>
+        <v>0.4903642192235986</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2826052862024231</v>
+        <v>0.2912605516374565</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2343543122007024</v>
+        <v>0.2624347484869764</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2610611396712749</v>
+        <v>0.2499377867442825</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>5.349995759707232</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.667872570613159</v>
+        <v>3.667872570613165</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1994589171846545</v>
@@ -949,7 +949,7 @@
         <v>0.1286237722802735</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1523754574518594</v>
+        <v>0.1523754574518596</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.838468544529067</v>
+        <v>2.094536610340231</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-0.4146705437770358</v>
+        <v>-0.3642630004651741</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.41477350819033</v>
+        <v>2.763236077548796</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.268806445554124</v>
+        <v>1.346486082336996</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.08344993447248172</v>
+        <v>0.09368781357187841</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.008619630908941847</v>
+        <v>-0.006731774308353539</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05628283650991478</v>
+        <v>0.06421927871028746</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04917894415400758</v>
+        <v>0.05070053733228615</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.728180299344579</v>
+        <v>6.766273007693741</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.039493236005056</v>
+        <v>5.021763351977272</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>8.025712211802839</v>
+        <v>8.443069050228617</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.160685946014162</v>
+        <v>6.101920367453173</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3291212225884413</v>
+        <v>0.3353103808729127</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09968094852606393</v>
+        <v>0.09853688208643877</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2027506704091787</v>
+        <v>0.2119744413287864</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2731629441310138</v>
+        <v>0.2681611689532644</v>
       </c>
     </row>
     <row r="16">
